--- a/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1112,7 +1112,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1653,7 +1653,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1112,7 +1112,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1653,7 +1653,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Dificultad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>40568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35583</v>
+        <v>35585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42547</v>
+        <v>42561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9332851906212752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8186125280077884</v>
+        <v>0.8186449275271973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9788101465285639</v>
+        <v>0.9791367386197767</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>2900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7885</v>
+        <v>7883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06671480937872477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02118985347143607</v>
+        <v>0.02086326138022328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.181387471992212</v>
+        <v>0.1813550724728028</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>60990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55496</v>
+        <v>54885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64907</v>
+        <v>64885</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9098447937852721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8278874535043463</v>
+        <v>0.8187828786690882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9682787307944827</v>
+        <v>0.9679607483447412</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>6043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2126</v>
+        <v>2148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11537</v>
+        <v>12148</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09015520621472792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03172126920551731</v>
+        <v>0.03203925165525884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1721125464956537</v>
+        <v>0.1812171213309118</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>60523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55123</v>
+        <v>55185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63502</v>
+        <v>63562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9371936039084718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8535747968641524</v>
+        <v>0.8545385936425771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9833258947453837</v>
+        <v>0.984254410178207</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>4056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1077</v>
+        <v>1017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9456</v>
+        <v>9394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06280639609152817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0166741052546163</v>
+        <v>0.015745589821793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1464252031358472</v>
+        <v>0.1454614063574229</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>27505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22620</v>
+        <v>23214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30515</v>
+        <v>30531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.871772419269234</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7169366117492542</v>
+        <v>0.7357769667271803</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9671616358025665</v>
+        <v>0.9676715496069787</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>4046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8931</v>
+        <v>8337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.128227580730766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03283836419743347</v>
+        <v>0.03232845039302135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2830633882507458</v>
+        <v>0.2642230332728198</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>189586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181080</v>
+        <v>179929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195964</v>
+        <v>195974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9175098276981313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8763463481378112</v>
+        <v>0.8707734649167209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9483781593152708</v>
+        <v>0.9484238832036281</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>17045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10667</v>
+        <v>10657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25551</v>
+        <v>26702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08249017230186871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05162184068472932</v>
+        <v>0.05157611679637182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1236536518621892</v>
+        <v>0.1292265350832797</v>
       </c>
     </row>
     <row r="18">
@@ -1196,7 +1196,7 @@
         <v>69711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65466</v>
+        <v>65202</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>70775</v>
@@ -1205,7 +1205,7 @@
         <v>0.9849609568681617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9249879433814021</v>
+        <v>0.9212510287172</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5309</v>
+        <v>5573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0150390431318384</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07501205661859786</v>
+        <v>0.07874897128279977</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>73869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69116</v>
+        <v>68928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75831</v>
+        <v>75841</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9627268575280292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9007866865952836</v>
+        <v>0.8983298728876594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9882931881950535</v>
+        <v>0.988429631101454</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>2860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7613</v>
+        <v>7801</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03727314247197073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01170681180494651</v>
+        <v>0.01157036889854599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09921331340471642</v>
+        <v>0.1016701271123405</v>
       </c>
     </row>
     <row r="9">
@@ -1528,19 +1528,19 @@
         <v>220134</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214286</v>
+        <v>214578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>223068</v>
+        <v>223043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9824852788637298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9563866556883479</v>
+        <v>0.9576903156497389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9955816113117782</v>
+        <v>0.9954704539855851</v>
       </c>
     </row>
     <row r="17">
@@ -1557,19 +1557,19 @@
         <v>3924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9772</v>
+        <v>9480</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01751472113627016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00441838868822177</v>
+        <v>0.004529546014414863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04361334431165209</v>
+        <v>0.04230968435026099</v>
       </c>
     </row>
     <row r="18">
@@ -1737,7 +1737,7 @@
         <v>46970</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43137</v>
+        <v>43400</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>48719</v>
@@ -1746,7 +1746,7 @@
         <v>0.9640995671808906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8854205200807939</v>
+        <v>0.8908150794980483</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5582</v>
+        <v>5319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03590043281910939</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1145794799192067</v>
+        <v>0.1091849205019517</v>
       </c>
     </row>
     <row r="6">
@@ -1828,19 +1828,19 @@
         <v>43381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39161</v>
+        <v>38889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45200</v>
+        <v>45189</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9430434923551978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8513172175506383</v>
+        <v>0.8453930111930293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9825955950188368</v>
+        <v>0.9823546201789961</v>
       </c>
     </row>
     <row r="8">
@@ -1857,19 +1857,19 @@
         <v>2620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6840</v>
+        <v>7112</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05695650764480218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01740440498116321</v>
+        <v>0.01764537982100394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1486827824493604</v>
+        <v>0.1546069888069709</v>
       </c>
     </row>
     <row r="9">
@@ -1919,7 +1919,7 @@
         <v>34824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30623</v>
+        <v>30590</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>36809</v>
@@ -1928,7 +1928,7 @@
         <v>0.9460762305309864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8319495884953172</v>
+        <v>0.8310392094399429</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6186</v>
+        <v>6219</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05392376946901353</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1680504115046828</v>
+        <v>0.1689607905600583</v>
       </c>
     </row>
     <row r="12">
@@ -2085,19 +2085,19 @@
         <v>138648</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132355</v>
+        <v>132375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142212</v>
+        <v>142196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9561802772922584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9127784762906276</v>
+        <v>0.9129156423850451</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9807596941654555</v>
+        <v>0.9806516905505375</v>
       </c>
     </row>
     <row r="17">
@@ -2114,19 +2114,19 @@
         <v>6354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2790</v>
+        <v>2806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12647</v>
+        <v>12627</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04381972270774156</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01924030583454454</v>
+        <v>0.01934830944946257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08722152370937243</v>
+        <v>0.08708435761495405</v>
       </c>
     </row>
     <row r="18">
